--- a/Excel/本地化数据_结局.xlsx
+++ b/Excel/本地化数据_结局.xlsx
@@ -1,33 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files (x86)\Steam\steamapps\common\WulinSH\Wulin_Data\StreamingAssets\ModEditor\ai\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36093392-EBFE-4E01-B7E7-7EF19D0BF917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="14055"/>
+    <workbookView xWindow="795" yWindow="3105" windowWidth="32040" windowHeight="17535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LocData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="210">
   <si>
     <t>备注</t>
   </si>
@@ -524,6 +517,129 @@
     <t>Royal son in law</t>
   </si>
   <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>채계협</t>
+  </si>
+  <si>
+    <t>출사불리</t>
+  </si>
+  <si>
+    <t>무림패주</t>
+  </si>
+  <si>
+    <t>무림맹주</t>
+  </si>
+  <si>
+    <t>협지대자</t>
+  </si>
+  <si>
+    <t>중원호남인</t>
+  </si>
+  <si>
+    <t>제사불순</t>
+  </si>
+  <si>
+    <t>독발신망</t>
+  </si>
+  <si>
+    <t>자배군중</t>
+  </si>
+  <si>
+    <t>발배변강</t>
+  </si>
+  <si>
+    <t>개도문참</t>
+  </si>
+  <si>
+    <t>신적여정</t>
+  </si>
+  <si>
+    <t>시화원방</t>
+  </si>
+  <si>
+    <t>전원풍광</t>
+  </si>
+  <si>
+    <t>근피력갈</t>
+  </si>
+  <si>
+    <t>암전난방</t>
+  </si>
+  <si>
+    <t>귀은산림</t>
+  </si>
+  <si>
+    <t>초양성파</t>
+  </si>
+  <si>
+    <t>유신황야</t>
+  </si>
+  <si>
+    <t>초양성수호자</t>
+  </si>
+  <si>
+    <t>심회의랭</t>
+  </si>
+  <si>
+    <t>여호모피</t>
+  </si>
+  <si>
+    <t>기불택식</t>
+  </si>
+  <si>
+    <t>집나귀안</t>
+  </si>
+  <si>
+    <t>공하신춘</t>
+  </si>
+  <si>
+    <t>천하제일</t>
+  </si>
+  <si>
+    <t>일대고승</t>
+  </si>
+  <si>
+    <t>봉관사작</t>
+  </si>
+  <si>
+    <t>이성봉왕</t>
+  </si>
+  <si>
+    <t>천하대란</t>
+  </si>
+  <si>
+    <t>진충보국</t>
+  </si>
+  <si>
+    <t>유죄천추</t>
+  </si>
+  <si>
+    <t>유문성현</t>
+  </si>
+  <si>
+    <t>구류문주</t>
+  </si>
+  <si>
+    <t>부갑천하</t>
+  </si>
+  <si>
+    <t>홍안여운</t>
+  </si>
+  <si>
+    <t>관성오도</t>
+  </si>
+  <si>
+    <t>유희강호</t>
+  </si>
+  <si>
+    <t>군임천하</t>
+  </si>
+  <si>
+    <t>황실부마</t>
+  </si>
+  <si>
     <t>end043</t>
   </si>
   <si>
@@ -533,24 +649,18 @@
     <t>Dominate the Western Regions</t>
   </si>
   <si>
-    <t>end</t>
+    <t>위진서역</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="맑은 고딕"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -567,7 +677,9 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -575,126 +687,14 @@
       <name val="微软雅黑"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -703,198 +703,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -937,461 +751,61 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="13">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="14">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="4" applyFill="1" borderId="7" applyBorder="1" xfId="16">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="5" applyFill="1" borderId="8" applyBorder="1" xfId="17">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="5" applyFill="1" borderId="7" applyBorder="1" xfId="18">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="6" applyFill="1" borderId="9" applyBorder="1" xfId="19">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" xfId="21">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="22">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="23">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="24">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="25">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="26">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="27">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="28">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="29">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="30">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="31">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="32">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="33">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="34">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="35">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="36">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="37">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="38">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="39">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="40">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="45">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="46">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="47">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="33" applyFill="1" borderId="0" applyBorder="1" xfId="48">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0"/>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0"/>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="0">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1404,6 +818,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1661,816 +1078,945 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1" style="50"/>
-    <col min="2" max="2" width="22.25" customWidth="1" style="50"/>
-    <col min="3" max="3" width="34.75" customWidth="1" style="51"/>
-    <col min="4" max="4" width="30" customWidth="1" style="51"/>
-    <col min="5" max="5" width="43.1333333333333" customWidth="1" style="51"/>
-    <col min="6" max="6" width="33" customWidth="1" style="49"/>
-    <col min="7" max="7" width="18.3833333333333" customWidth="1" style="52"/>
-    <col min="8" max="8" width="15.75" customWidth="1" style="52"/>
-    <col min="9" max="9" width="17.3833333333333" customWidth="1" style="52"/>
-    <col min="10" max="10" width="15.1333333333333" customWidth="1" style="52"/>
-    <col min="11" max="11" width="14.75" customWidth="1" style="52"/>
-    <col min="12" max="12" width="14.3833333333333" customWidth="1" style="52"/>
-    <col min="13" max="13" width="19.25" customWidth="1" style="52"/>
-    <col min="14" max="14" width="17.8833333333333" customWidth="1" style="52"/>
-    <col min="15" max="16384" width="9" customWidth="1" style="52"/>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30" style="2" customWidth="1"/>
+    <col min="5" max="5" width="43.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="33" customWidth="1"/>
+    <col min="7" max="7" width="15.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17.375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.75" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="19.25" style="3" customWidth="1"/>
+    <col min="13" max="13" width="17.875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="9" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="56" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="56" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="56" t="s">
+    <row r="6" spans="1:7">
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="56" t="s">
+    <row r="7" spans="1:7">
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="56" t="s">
+    <row r="8" spans="1:7">
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="49" t="s">
+      <c r="F8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="56" t="s">
+    <row r="9" spans="1:7">
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="49" t="s">
+      <c r="F9" t="s">
+        <v>171</v>
+      </c>
+      <c r="G9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="56" t="s">
+    <row r="10" spans="1:7">
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="49" t="s">
+      <c r="F10" t="s">
+        <v>172</v>
+      </c>
+      <c r="G10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="56" t="s">
+    <row r="11" spans="1:7">
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="49" t="s">
+      <c r="F11" t="s">
+        <v>173</v>
+      </c>
+      <c r="G11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="56" t="s">
+    <row r="12" spans="1:7">
+      <c r="B12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="51" t="s">
+      <c r="E12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="49" t="s">
+      <c r="F12" t="s">
+        <v>174</v>
+      </c>
+      <c r="G12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13">
-      <c r="B13" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="56" t="s">
+    <row r="13" spans="1:7">
+      <c r="B13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="51" t="s">
+      <c r="E13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="49" t="s">
+      <c r="F13" t="s">
+        <v>175</v>
+      </c>
+      <c r="G13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="56" t="s">
+    <row r="14" spans="1:7">
+      <c r="B14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="51" t="s">
+      <c r="E14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="49" t="s">
+      <c r="F14" t="s">
+        <v>176</v>
+      </c>
+      <c r="G14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="56" t="s">
+    <row r="15" spans="1:7">
+      <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="51" t="s">
+      <c r="E15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="49" t="s">
+      <c r="F15" t="s">
+        <v>177</v>
+      </c>
+      <c r="G15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16">
-      <c r="B16" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="56" t="s">
+    <row r="16" spans="1:7">
+      <c r="B16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="49" t="s">
+      <c r="F16" t="s">
+        <v>178</v>
+      </c>
+      <c r="G16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17">
-      <c r="B17" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="56" t="s">
+    <row r="17" spans="2:7">
+      <c r="B17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="51" t="s">
+      <c r="E17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="49" t="s">
+      <c r="F17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18">
-      <c r="B18" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="56" t="s">
+    <row r="18" spans="2:7">
+      <c r="B18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="51" t="s">
+      <c r="E18" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="49" t="s">
+      <c r="F18" t="s">
+        <v>180</v>
+      </c>
+      <c r="G18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19">
-      <c r="B19" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="56" t="s">
+    <row r="19" spans="2:7">
+      <c r="B19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="51" t="s">
+      <c r="D19" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="51" t="s">
+      <c r="E19" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="49" t="s">
+      <c r="F19" t="s">
+        <v>181</v>
+      </c>
+      <c r="G19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20">
-      <c r="B20" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="56" t="s">
+    <row r="20" spans="2:7">
+      <c r="B20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="51" t="s">
+      <c r="E20" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="49" t="s">
+      <c r="F20" t="s">
+        <v>182</v>
+      </c>
+      <c r="G20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21">
-      <c r="B21" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="56" t="s">
+    <row r="21" spans="2:7">
+      <c r="B21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E21" s="51" t="s">
+      <c r="E21" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="49" t="s">
+      <c r="F21" t="s">
+        <v>183</v>
+      </c>
+      <c r="G21" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="22">
-      <c r="B22" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="56" t="s">
+    <row r="22" spans="2:7">
+      <c r="B22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="51" t="s">
+      <c r="E22" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="49" t="s">
+      <c r="F22" t="s">
+        <v>184</v>
+      </c>
+      <c r="G22" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23">
-      <c r="B23" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="56" t="s">
+    <row r="23" spans="2:7">
+      <c r="B23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="51" t="s">
+      <c r="D23" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E23" s="51" t="s">
+      <c r="E23" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="49" t="s">
+      <c r="F23" t="s">
+        <v>185</v>
+      </c>
+      <c r="G23" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24">
-      <c r="B24" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="56" t="s">
+    <row r="24" spans="2:7">
+      <c r="B24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="51" t="s">
+      <c r="D24" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E24" s="51" t="s">
+      <c r="E24" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F24" s="49" t="s">
+      <c r="F24" t="s">
+        <v>186</v>
+      </c>
+      <c r="G24" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="25">
-      <c r="B25" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="56" t="s">
+    <row r="25" spans="2:7">
+      <c r="B25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="51" t="s">
+      <c r="D25" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E25" s="51" t="s">
+      <c r="E25" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F25" s="49" t="s">
+      <c r="F25" t="s">
+        <v>187</v>
+      </c>
+      <c r="G25" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="26">
-      <c r="B26" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="56" t="s">
+    <row r="26" spans="2:7">
+      <c r="B26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="51" t="s">
+      <c r="D26" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="51" t="s">
+      <c r="E26" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F26" s="49" t="s">
+      <c r="F26" t="s">
+        <v>188</v>
+      </c>
+      <c r="G26" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="27">
-      <c r="B27" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="56" t="s">
+    <row r="27" spans="2:7">
+      <c r="B27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="51" t="s">
+      <c r="D27" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E27" s="51" t="s">
+      <c r="E27" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F27" s="49" t="s">
+      <c r="F27" t="s">
+        <v>189</v>
+      </c>
+      <c r="G27" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="28">
-      <c r="B28" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="56" t="s">
+    <row r="28" spans="2:7">
+      <c r="B28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D28" s="51" t="s">
+      <c r="D28" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E28" s="51" t="s">
+      <c r="E28" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F28" s="49" t="s">
+      <c r="F28" t="s">
+        <v>190</v>
+      </c>
+      <c r="G28" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="29">
-      <c r="B29" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="56" t="s">
+    <row r="29" spans="2:7">
+      <c r="B29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D29" s="51" t="s">
+      <c r="D29" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E29" s="51" t="s">
+      <c r="E29" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F29" s="49" t="s">
+      <c r="F29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G29" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="30">
-      <c r="B30" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="56" t="s">
+    <row r="30" spans="2:7">
+      <c r="B30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D30" s="51" t="s">
+      <c r="D30" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E30" s="51" t="s">
+      <c r="E30" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F30" s="49" t="s">
+      <c r="F30" t="s">
+        <v>192</v>
+      </c>
+      <c r="G30" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="31">
-      <c r="B31" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="56" t="s">
+    <row r="31" spans="2:7">
+      <c r="B31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D31" s="51" t="s">
+      <c r="D31" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E31" s="51" t="s">
+      <c r="E31" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F31" s="49" t="s">
+      <c r="F31" t="s">
+        <v>193</v>
+      </c>
+      <c r="G31" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="32">
-      <c r="B32" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="56" t="s">
+    <row r="32" spans="2:7">
+      <c r="B32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D32" s="51" t="s">
+      <c r="D32" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E32" s="51" t="s">
+      <c r="E32" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F32" s="49" t="s">
+      <c r="F32" t="s">
+        <v>194</v>
+      </c>
+      <c r="G32" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="33">
-      <c r="B33" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="56" t="s">
+    <row r="33" spans="1:7">
+      <c r="B33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D33" s="51" t="s">
+      <c r="D33" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E33" s="51" t="s">
+      <c r="E33" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F33" s="49" t="s">
+      <c r="F33" t="s">
+        <v>195</v>
+      </c>
+      <c r="G33" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="34">
-      <c r="B34" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="56" t="s">
+    <row r="34" spans="1:7">
+      <c r="B34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D34" s="51" t="s">
+      <c r="D34" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E34" s="51" t="s">
+      <c r="E34" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F34" s="49" t="s">
+      <c r="F34" t="s">
+        <v>196</v>
+      </c>
+      <c r="G34" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="35">
-      <c r="B35" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="56" t="s">
+    <row r="35" spans="1:7">
+      <c r="B35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D35" s="51" t="s">
+      <c r="D35" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E35" s="51" t="s">
+      <c r="E35" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F35" s="49" t="s">
+      <c r="F35" t="s">
+        <v>197</v>
+      </c>
+      <c r="G35" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="36">
-      <c r="B36" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="56" t="s">
+    <row r="36" spans="1:7">
+      <c r="B36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D36" s="51" t="s">
+      <c r="D36" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E36" s="51" t="s">
+      <c r="E36" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F36" s="49" t="s">
+      <c r="F36" t="s">
+        <v>198</v>
+      </c>
+      <c r="G36" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="37">
-      <c r="B37" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="56" t="s">
+    <row r="37" spans="1:7">
+      <c r="B37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D37" s="51" t="s">
+      <c r="D37" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E37" s="51" t="s">
+      <c r="E37" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F37" s="49" t="s">
+      <c r="F37" t="s">
+        <v>199</v>
+      </c>
+      <c r="G37" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="38">
-      <c r="B38" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="56" t="s">
+    <row r="38" spans="1:7">
+      <c r="B38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D38" s="51" t="s">
+      <c r="D38" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E38" s="51" t="s">
+      <c r="E38" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F38" s="49" t="s">
+      <c r="F38" t="s">
+        <v>200</v>
+      </c>
+      <c r="G38" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="39">
-      <c r="B39" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="56" t="s">
+    <row r="39" spans="1:7">
+      <c r="B39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D39" s="51" t="s">
+      <c r="D39" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E39" s="51" t="s">
+      <c r="E39" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F39" s="49" t="s">
+      <c r="F39" t="s">
+        <v>201</v>
+      </c>
+      <c r="G39" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="40">
-      <c r="B40" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="56" t="s">
+    <row r="40" spans="1:7">
+      <c r="B40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D40" s="51" t="s">
+      <c r="D40" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E40" s="51" t="s">
+      <c r="E40" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F40" s="49" t="s">
+      <c r="F40" t="s">
+        <v>202</v>
+      </c>
+      <c r="G40" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="41">
-      <c r="B41" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="56" t="s">
+    <row r="41" spans="1:7">
+      <c r="B41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D41" s="51" t="s">
+      <c r="D41" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E41" s="51" t="s">
+      <c r="E41" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F41" s="49" t="s">
+      <c r="F41" t="s">
+        <v>203</v>
+      </c>
+      <c r="G41" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="42">
-      <c r="B42" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" s="56" t="s">
+    <row r="42" spans="1:7">
+      <c r="B42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D42" s="51" t="s">
+      <c r="D42" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E42" s="51" t="s">
+      <c r="E42" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F42" s="49" t="s">
+      <c r="F42" t="s">
+        <v>204</v>
+      </c>
+      <c r="G42" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="53"/>
-      <c r="B43" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" s="56" t="s">
+    <row r="43" spans="1:7">
+      <c r="A43" s="4"/>
+      <c r="B43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D43" s="51" t="s">
+      <c r="D43" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E43" s="55" t="s">
+      <c r="E43" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="F43" s="49" t="s">
+      <c r="F43" t="s">
+        <v>205</v>
+      </c>
+      <c r="G43" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="53"/>
-      <c r="B44" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" s="56" t="s">
+    <row r="44" spans="1:7">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="F44" t="s">
+        <v>209</v>
+      </c>
+      <c r="G44" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D44" s="51" t="s">
-        <v>166</v>
-      </c>
-      <c r="E44" s="55" t="s">
-        <v>166</v>
-      </c>
-      <c r="F44" s="49" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="B45" s="53"/>
-      <c r="C45" s="56"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C43:C44">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="C46:C1048576 C1:C3">
+    <cfRule type="duplicateValues" dxfId="5" priority="182"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C3 C46:C1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="180"/>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D$1:E$1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="181"/>
+  <conditionalFormatting sqref="C45 C4:C42">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C42 C45">
+  <conditionalFormatting sqref="D1:E43 D45:E1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="183"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:E44">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>